--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\GoBan\GoBan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE56C27F-928F-4BFB-B1AA-5CCBB9132B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75010B1-5DB5-4311-AB09-5D0DF3ABEC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1644" windowWidth="18984" windowHeight="12828" xr2:uid="{8EF9DFCE-5140-478E-88C3-5DD78DCA05FD}"/>
+    <workbookView xWindow="7560" yWindow="1620" windowWidth="18984" windowHeight="12828" xr2:uid="{8EF9DFCE-5140-478E-88C3-5DD78DCA05FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>File</t>
   </si>
@@ -95,49 +95,10 @@
     <t>775a446</t>
   </si>
   <si>
-    <t>775a447</t>
-  </si>
-  <si>
-    <t>775a448</t>
-  </si>
-  <si>
-    <t>775a449</t>
-  </si>
-  <si>
-    <t>775a450</t>
-  </si>
-  <si>
-    <t>775a451</t>
-  </si>
-  <si>
-    <t>775a452</t>
-  </si>
-  <si>
-    <t>775a453</t>
-  </si>
-  <si>
-    <t>775a454</t>
-  </si>
-  <si>
-    <t>775a455</t>
-  </si>
-  <si>
-    <t>775a456</t>
-  </si>
-  <si>
-    <t>775a457</t>
-  </si>
-  <si>
-    <t>775a458</t>
-  </si>
-  <si>
-    <t>775a459</t>
-  </si>
-  <si>
-    <t>775a460</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>9e330e6</t>
   </si>
 </sst>
 </file>
@@ -187,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF9C07D-8D74-4DB0-98F3-FA04C89FAEC8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +497,7 @@
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +507,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -557,7 +525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -565,10 +533,10 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -576,10 +544,10 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -587,10 +555,10 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -598,10 +566,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -609,10 +577,10 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -620,10 +588,10 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -631,10 +599,16 @@
         <v>402</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>303</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -642,10 +616,16 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -653,10 +633,10 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -664,10 +644,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -675,10 +655,10 @@
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -686,10 +666,10 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -697,10 +677,10 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -708,12 +688,12 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <f>SUM(B2:B16)</f>
